--- a/工厂订单/订单2019/产品价格更改2019.xlsx
+++ b/工厂订单/订单2019/产品价格更改2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Desktop/prince/工厂订单/订单2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{266D1290-B211-4C4F-9ED0-70A33401CAB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0D2468-F78E-6741-8CFA-5D56285B1FD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16280" xr2:uid="{D04B811B-9B5A-0C4E-863C-DD6A69E0A714}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>郁订单价目表更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>来料加工单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +196,18 @@
   </si>
   <si>
     <t>4、新开版的产品，特别是小件牛皮类产品（外发），下单尽量有个数量，单个做价格可能比较难接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸵鸟皮产品价格更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用钥匙包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单价目表更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE2D3F7-5F6D-9A4B-ACE2-14D95C5760B5}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -889,7 +900,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -909,7 +920,7 @@
     </row>
     <row r="4" spans="2:8" ht="19" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -920,16 +931,16 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -937,7 +948,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <v>570</v>
@@ -946,7 +957,7 @@
         <v>770</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -954,7 +965,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
         <v>380</v>
@@ -969,7 +980,7 @@
     </row>
     <row r="8" spans="2:8" ht="18">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <v>260</v>
@@ -984,7 +995,7 @@
     </row>
     <row r="9" spans="2:8" ht="18">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>220</v>
@@ -999,7 +1010,7 @@
     </row>
     <row r="10" spans="2:8" ht="18">
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>200</v>
@@ -1014,7 +1025,7 @@
     </row>
     <row r="11" spans="2:8" ht="18">
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6">
         <v>180</v>
@@ -1029,7 +1040,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>180</v>
@@ -1044,7 +1055,7 @@
     </row>
     <row r="13" spans="2:8" ht="18">
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6">
         <v>150</v>
@@ -1059,7 +1070,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <v>150</v>
@@ -1074,7 +1085,7 @@
     </row>
     <row r="15" spans="2:8" ht="19" thickBot="1">
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="12">
         <v>100</v>
@@ -1089,7 +1100,7 @@
     </row>
     <row r="16" spans="2:8" ht="19" thickBot="1">
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1109,7 +1120,7 @@
     </row>
     <row r="18" spans="2:8" ht="19" thickBot="1">
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1120,16 +1131,16 @@
     </row>
     <row r="19" spans="2:8" ht="18">
       <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1137,7 +1148,7 @@
     </row>
     <row r="20" spans="2:8" ht="18">
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="6">
         <v>1100</v>
@@ -1152,7 +1163,7 @@
     </row>
     <row r="21" spans="2:8" ht="18">
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="6">
         <v>1300</v>
@@ -1167,7 +1178,7 @@
     </row>
     <row r="22" spans="2:8" ht="19" thickBot="1">
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="12">
         <v>1300</v>
@@ -1182,7 +1193,7 @@
     </row>
     <row r="23" spans="2:8" ht="19" thickBot="1">
       <c r="B23" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1202,7 +1213,7 @@
     </row>
     <row r="25" spans="2:8" ht="18">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1212,57 +1223,148 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>350</v>
+      </c>
+      <c r="D27" s="6">
+        <v>450</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" ht="18">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6">
+        <v>400</v>
+      </c>
+      <c r="D28" s="6">
+        <v>480</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6">
+        <v>400</v>
+      </c>
+      <c r="D29" s="6">
+        <v>500</v>
+      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" ht="18">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" ht="18">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" ht="18">
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" ht="18">
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" ht="18">
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" ht="18">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" ht="18">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
